--- a/Assets/09Tables/TownGame.xlsx
+++ b/Assets/09Tables/TownGame.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\TownGame\Assets\09Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EF141E-DB61-44D1-9605-0C3C0B708D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB18589-3799-48C7-9F97-47C5E2E4B412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{AA6A7992-8041-428B-8826-3D8BF8DC1236}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA6A7992-8041-428B-8826-3D8BF8DC1236}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뼈생선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뼈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,28 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
     <t>test8</t>
   </si>
   <si>
@@ -568,6 +538,42 @@
   </si>
   <si>
     <t>ItemIcon/yellow pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성이 있으니 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔히 보이는 평범한 물고기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 쓸모가 없을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요할 수 있으니 챙겨두자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔에 찔리지 않게 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주가 들어있으면 좋겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리가 10개인지 세어보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,11 +941,12 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D48"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
@@ -959,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,13 +977,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,16 +991,16 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,16 +1008,16 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,16 +1025,16 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,16 +1042,16 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,16 +1059,16 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,16 +1076,16 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,16 +1093,16 @@
         <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1103,16 +1110,16 @@
         <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,16 +1127,16 @@
         <v>2003</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,16 +1144,16 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1154,16 +1161,16 @@
         <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1171,16 +1178,16 @@
         <v>2006</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1188,16 +1195,16 @@
         <v>2007</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,16 +1212,16 @@
         <v>2008</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,16 +1229,16 @@
         <v>2009</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,16 +1246,16 @@
         <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1256,16 +1263,16 @@
         <v>2011</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1273,16 +1280,16 @@
         <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,16 +1297,16 @@
         <v>2013</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1307,16 +1314,16 @@
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1324,16 +1331,16 @@
         <v>2015</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1341,16 +1348,16 @@
         <v>2016</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1358,16 +1365,16 @@
         <v>3001</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1375,16 +1382,16 @@
         <v>3002</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1392,16 +1399,16 @@
         <v>3003</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1409,16 +1416,16 @@
         <v>3004</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,16 +1433,16 @@
         <v>3005</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,16 +1450,16 @@
         <v>3006</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,16 +1467,16 @@
         <v>3007</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,16 +1484,16 @@
         <v>3008</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,16 +1501,16 @@
         <v>3009</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1511,16 +1518,16 @@
         <v>3010</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,16 +1535,16 @@
         <v>3011</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,16 +1552,16 @@
         <v>3012</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1562,16 +1569,16 @@
         <v>3013</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1579,16 +1586,16 @@
         <v>3014</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1596,16 +1603,16 @@
         <v>3015</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,16 +1620,16 @@
         <v>3016</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,16 +1637,16 @@
         <v>3017</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,16 +1654,16 @@
         <v>3018</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,16 +1671,16 @@
         <v>3019</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,16 +1688,16 @@
         <v>3020</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,16 +1705,16 @@
         <v>3021</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,16 +1722,16 @@
         <v>3022</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1732,16 +1739,16 @@
         <v>3023</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,16 +1756,16 @@
         <v>3024</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/09Tables/TownGame.xlsx
+++ b/Assets/09Tables/TownGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\TownGame\Assets\09Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB18589-3799-48C7-9F97-47C5E2E4B412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255801-6245-4033-A5C9-2A3642515611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA6A7992-8041-428B-8826-3D8BF8DC1236}"/>
   </bookViews>
@@ -345,235 +345,260 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
-  </si>
-  <si>
-    <t>test17</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
-    <t>test19</t>
-  </si>
-  <si>
-    <t>test20</t>
-  </si>
-  <si>
-    <t>test21</t>
-  </si>
-  <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>test23</t>
-  </si>
-  <si>
-    <t>test24</t>
-  </si>
-  <si>
-    <t>test25</t>
-  </si>
-  <si>
-    <t>test26</t>
-  </si>
-  <si>
-    <t>test27</t>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>test30</t>
+  </si>
+  <si>
+    <t>test31</t>
+  </si>
+  <si>
+    <t>test32</t>
+  </si>
+  <si>
+    <t>test33</t>
+  </si>
+  <si>
+    <t>test34</t>
+  </si>
+  <si>
+    <t>test35</t>
+  </si>
+  <si>
+    <t>test36</t>
+  </si>
+  <si>
+    <t>test37</t>
+  </si>
+  <si>
+    <t>test38</t>
+  </si>
+  <si>
+    <t>test39</t>
+  </si>
+  <si>
+    <t>test40</t>
+  </si>
+  <si>
+    <t>test41</t>
+  </si>
+  <si>
+    <t>test42</t>
+  </si>
+  <si>
+    <t>test47</t>
+  </si>
+  <si>
+    <t>ItemIcon/cabbage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/celery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/Champignon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/corn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/dill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/mandrake root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/mint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/onion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/pumpiking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/radish2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/redpepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/Untitled-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/yellow pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성이 있으니 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔히 보이는 평범한 물고기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 쓸모가 없을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요할 수 있으니 챙겨두자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔에 찔리지 않게 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주가 들어있으면 좋겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리가 10개인지 세어보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 입 베어 물어보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐의 기분을 느낄 수 있을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이어트에 도움이 될 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식이섬유가 풍부해보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미용에 도움이 될 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앵두랑 헷갈리지 말자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열기 힘들 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 포도는 신포도일거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕후루 제작에 사용될 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연육작용에 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원한 맛이 일품일 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알러지가 있다면 주의하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새콤달콤 맛있어 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은건 귤이 아니라 덜 자란 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토가 왜 나무에서 나오지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍질을 잘 벗겨서 먹자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹으면 절명할 것 같다. 조심히 다루자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이크랑 곁들여 먹기 좋아보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 많이 먹으면 복통을 유발하니 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩으로 무엇을 해먹을지 고민해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국인의 향신료 마늘 잔뜩 캐가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찻잎을 말려 녹차를 마실 수 있을거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매울지 안매울지는 한 입 먹어보고 판단하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test28</t>
-  </si>
-  <si>
-    <t>test29</t>
-  </si>
-  <si>
-    <t>test30</t>
-  </si>
-  <si>
-    <t>test31</t>
-  </si>
-  <si>
-    <t>test32</t>
-  </si>
-  <si>
-    <t>test33</t>
-  </si>
-  <si>
-    <t>test34</t>
-  </si>
-  <si>
-    <t>test35</t>
-  </si>
-  <si>
-    <t>test36</t>
-  </si>
-  <si>
-    <t>test37</t>
-  </si>
-  <si>
-    <t>test38</t>
-  </si>
-  <si>
-    <t>test39</t>
-  </si>
-  <si>
-    <t>test40</t>
-  </si>
-  <si>
-    <t>test41</t>
-  </si>
-  <si>
-    <t>test42</t>
-  </si>
-  <si>
-    <t>test43</t>
-  </si>
-  <si>
-    <t>test44</t>
-  </si>
-  <si>
-    <t>test45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test46</t>
-  </si>
-  <si>
-    <t>test47</t>
-  </si>
-  <si>
-    <t>ItemIcon/cabbage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/carrot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/celery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/Champignon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/corn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/cucumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/dill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/mandrake root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/mint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/mushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/onion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/pumpiking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/radish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/radish2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/redpepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/tea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/Untitled-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/wheat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/yellow pepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한 물고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 뼈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독성이 있으니 조심하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흔히 보이는 평범한 물고기이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딱히 쓸모가 없을 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요할 수 있으니 챙겨두자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿔에 찔리지 않게 조심하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주가 들어있으면 좋겠다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다리가 10개인지 세어보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF681531-88F3-45E3-953C-CBA0C036CDB0}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,7 +1008,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -991,7 +1016,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1000,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,7 +1042,7 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,7 +1059,7 @@
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,7 +1076,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,7 +1084,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -1068,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1099,10 +1124,10 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1119,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1408,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1442,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,13 +1478,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,13 +1495,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,13 +1512,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,13 +1529,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1521,13 +1546,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,13 +1563,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,13 +1580,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,13 +1597,13 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,13 +1614,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1606,13 +1631,13 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1623,13 +1648,13 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,13 +1665,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1657,13 +1682,13 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1674,13 +1699,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1691,13 +1716,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1708,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,13 +1750,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,13 +1767,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1759,13 +1784,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/09Tables/TownGame.xlsx
+++ b/Assets/09Tables/TownGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\TownGame\Assets\09Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55255801-6245-4033-A5C9-2A3642515611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62272CA9-BAA9-455E-AB72-426C0F71A051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA6A7992-8041-428B-8826-3D8BF8DC1236}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,85 @@
   <si>
     <t>test46</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡괭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물뿌리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/Basket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/FishingRod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/Hoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/Pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/Shovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentIcon/WateringCan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
   </si>
 </sst>
 </file>
@@ -963,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF681531-88F3-45E3-953C-CBA0C036CDB0}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1872,125 @@
         <v>92</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49">
+        <v>2500</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50">
+        <v>2500</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>10003</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>2500</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10004</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>2500</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10005</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <v>2500</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54">
+        <v>2500</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55">
+        <v>2500</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
